--- a/harana/datasets/BPSFH/28/chords.xlsx
+++ b/harana/datasets/BPSFH/28/chords.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/harana/harana/datasets/BPSFH/28/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F22334-8A61-424E-AADE-048EF91022D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="141">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bVI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,24 +581,30 @@
   <si>
     <t>h7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/-2</t>
+  </si>
+  <si>
+    <t>V/bII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -665,7 +668,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,19 +945,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G132" sqref="A132:G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -977,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1.5</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4.5</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7.5</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10.5</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11.5</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>13.5</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>16.5</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>19.5</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22.5</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>25.5</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>28.5</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>31.5</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>35.5</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>36</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38.5</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40.5</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43.5</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>48</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>49.5</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>51</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>52.5</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>54</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>59.5</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>64.5</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>65.5</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>66</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>70.5</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>71.5</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>72</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>73.5</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>75</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>76.5</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>78</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>79.5</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>81</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>82.5</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>84</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>85</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>86.5</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>88</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>89.5</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>91</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>92.5</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>94</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>95.5</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>107.5</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>111</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>120</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>129</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>135</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>138</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>141</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>142.5</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>144</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>145.5</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>147</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>150</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>153</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>156</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>157.5</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>159</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>160.5</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>162</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>169.5</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>170.5</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>171</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>172.5</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>176.5</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>177</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>178.5</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>180</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>181.5</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>183</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>184.5</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>186</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>187.5</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>189</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>193.5</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>195</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>196.5</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>198</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>199.5</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>201</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>204</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>205.5</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>207</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>208.5</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>210</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>215.5</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>216</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>220.5</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>221.5</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>222</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>226.5</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>227.5</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>228</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>229.5</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>231</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>232.5</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>234</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>235.5</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>237</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>238.5</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>240</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>241</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>242.5</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>244</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>245.5</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>247</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>248.5</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>250</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>251.5</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>253</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>254.5</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>262.5</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>264</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>265.5</v>
       </c>
@@ -3977,8 +3980,8 @@
       <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="1">
-        <v>-6</v>
+      <c r="D132" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>69</v>
@@ -3987,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>267</v>
       </c>
@@ -3998,22 +4001,22 @@
         <v>271.5</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F133" s="1">
         <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>271.5</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>273</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>274.5</v>
       </c>
@@ -4079,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>276</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>277.5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D137" s="1">
         <v>7</v>
@@ -4102,10 +4105,10 @@
         <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>277.5</v>
       </c>
@@ -4119,16 +4122,16 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F138" s="1">
         <v>2</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>279</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>280.5</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>282</v>
       </c>
@@ -4194,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>283.5</v>
       </c>
@@ -4205,22 +4208,22 @@
         <v>287.5</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D142" s="1">
-        <v>5</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>287.5</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>290.5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
@@ -4243,7 +4246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>290.5</v>
       </c>
@@ -4251,22 +4254,22 @@
         <v>294</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D144" s="1">
-        <v>5</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" s="1">
-        <v>0</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>294</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>295.5</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>297</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>298.5</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>300</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>301.5</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>304.5</v>
       </c>
